--- a/UploadClassinfoSample.xlsx
+++ b/UploadClassinfoSample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ALLForFYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978CB14F-185B-49D2-A897-A8341AE37E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4709E67D-2253-463D-9EC3-48F8F812A5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="30">
   <si>
     <t>Cdept</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,27 +67,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RM101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Campus D</t>
+    <t>COMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sin Hang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMC512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEC801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRS638</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSC801C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSC801D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSC901D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WLB103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WLB104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OEE1017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRS735</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSC901C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRS905</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMC514</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WLB205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEC911</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,18 +513,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="3.21875" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -491,54 +558,1796 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1006</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1">
-        <v>0.39583333333333331</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="H2" s="1">
-        <v>0.43055555555555558</v>
+        <v>0.76388888888888884</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1006</v>
+      </c>
+      <c r="C3" s="2">
+        <v>20001</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
         <v>0.4375</v>
       </c>
       <c r="H3" s="1">
         <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1006</v>
+      </c>
+      <c r="C4">
+        <v>20002</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1007</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1007</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1007</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1007</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.68055555555555547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1015</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1015</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1015</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1015</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>1015</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>2006</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>2006</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>2006</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>2006</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>2006</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10002</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>2006</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10002</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>2026</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2026</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>2026</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>2026</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>2026</v>
+      </c>
+      <c r="C24">
+        <v>20101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>2026</v>
+      </c>
+      <c r="C25">
+        <v>20101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>2026</v>
+      </c>
+      <c r="C26">
+        <v>20101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.63888888888888895</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>2026</v>
+      </c>
+      <c r="C27">
+        <v>20101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.63888888888888895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>2027</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>2027</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>2035</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>2037</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>2037</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>2037</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>2045</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>2045</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>2045</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>2045</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>2045</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.68055555555555547</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>2045</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.68055555555555547</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40">
+        <v>2045</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>2045</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>2045</v>
+      </c>
+      <c r="C42" s="2">
+        <v>20101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>2045</v>
+      </c>
+      <c r="C43" s="2">
+        <v>20101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <v>2045</v>
+      </c>
+      <c r="C44" s="2">
+        <v>20101</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.63888888888888895</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>2045</v>
+      </c>
+      <c r="C45" s="2">
+        <v>20101</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.63888888888888895</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>2045</v>
+      </c>
+      <c r="C46" s="2">
+        <v>20201</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>2045</v>
+      </c>
+      <c r="C47" s="2">
+        <v>20201</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48">
+        <v>2045</v>
+      </c>
+      <c r="C48" s="2">
+        <v>20201</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49">
+        <v>2045</v>
+      </c>
+      <c r="C49" s="2">
+        <v>20201</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>3005</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>3005</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>3005</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>3015</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>3015</v>
+      </c>
+      <c r="C54">
+        <v>10001</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0.63888888888888895</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>3015</v>
+      </c>
+      <c r="C55">
+        <v>10001</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0.63888888888888895</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56">
+        <v>3015</v>
+      </c>
+      <c r="C56">
+        <v>10002</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0.63888888888888895</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57">
+        <v>3015</v>
+      </c>
+      <c r="C57">
+        <v>10002</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.63888888888888895</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>3047</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>3047</v>
+      </c>
+      <c r="C59">
+        <v>20001</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>3047</v>
+      </c>
+      <c r="C60">
+        <v>20001</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <v>3047</v>
+      </c>
+      <c r="C61">
+        <v>20002</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62">
+        <v>3047</v>
+      </c>
+      <c r="C62">
+        <v>20002</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.76388888888888884</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63">
+        <v>3057</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>3057</v>
+      </c>
+      <c r="C64">
+        <v>10001</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65">
+        <v>3075</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>3075</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67">
+        <v>3075</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>3075</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.68055555555555547</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69">
+        <v>3075</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.68055555555555547</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70">
+        <v>3075</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.68055555555555547</v>
       </c>
     </row>
   </sheetData>

--- a/UploadClassinfoSample.xlsx
+++ b/UploadClassinfoSample.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ALLForFYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/socally/AllFYP/FYPTesting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4709E67D-2253-463D-9EC3-48F8F812A5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3AD1F4-BA49-B742-9CC9-7A4B13CCC1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -159,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,12 +175,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -195,10 +201,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -515,22 +527,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="6.21875" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="3.21875" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="3.1640625" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -582,7 +594,7 @@
         <v>0.76388888888888884</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -608,7 +620,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -634,7 +646,7 @@
         <v>0.43055555555555558</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -660,7 +672,7 @@
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -686,7 +698,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -712,7 +724,7 @@
         <v>0.59722222222222221</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -738,7 +750,7 @@
         <v>0.68055555555555547</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -764,7 +776,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -790,7 +802,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -816,7 +828,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -842,7 +854,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -868,7 +880,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -894,7 +906,7 @@
         <v>0.3888888888888889</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -920,7 +932,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -946,7 +958,7 @@
         <v>0.47222222222222227</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -972,7 +984,7 @@
         <v>0.47222222222222227</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -998,7 +1010,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1024,7 +1036,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1050,7 +1062,7 @@
         <v>0.59722222222222221</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1076,7 +1088,7 @@
         <v>0.59722222222222221</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1102,7 +1114,7 @@
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1128,7 +1140,7 @@
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1154,7 +1166,7 @@
         <v>0.59722222222222221</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1180,59 +1192,59 @@
         <v>0.59722222222222221</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:8" s="3" customFormat="1">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="3">
         <v>2026</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>20101</v>
       </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>3</v>
       </c>
-      <c r="G26" s="1">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="G26" s="4">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H26" s="4">
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:8" s="3" customFormat="1">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="3">
         <v>2026</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>20101</v>
       </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="1">
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="G27" s="4">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="H27" s="4">
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1258,7 +1270,7 @@
         <v>0.43055555555555558</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1284,7 +1296,7 @@
         <v>0.47222222222222227</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1310,7 +1322,7 @@
         <v>0.76388888888888884</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1336,7 +1348,7 @@
         <v>0.76388888888888884</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1362,7 +1374,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1388,423 +1400,423 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:8" s="3" customFormat="1">
+      <c r="A34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="3">
         <v>2045</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>3</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="4">
         <v>0.5625</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="4">
         <v>0.59722222222222221</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:8" s="3" customFormat="1">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3">
         <v>2045</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>3</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="4">
         <v>0.5625</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="4">
         <v>0.59722222222222221</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:8" s="3" customFormat="1">
+      <c r="A36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="3">
         <v>2045</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>4</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="4">
         <v>0.64583333333333337</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="4">
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:8" s="3" customFormat="1">
+      <c r="A37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="3">
         <v>2045</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="C37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>4</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="4">
         <v>0.64583333333333337</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="4">
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38">
+    <row r="38" spans="1:8" s="6" customFormat="1">
+      <c r="A38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="6">
         <v>2045</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="6">
         <v>1</v>
       </c>
-      <c r="G38" s="1">
+      <c r="G38" s="8">
         <v>0.60416666666666663</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="8">
         <v>0.68055555555555547</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39">
+    <row r="39" spans="1:8" s="6" customFormat="1">
+      <c r="A39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="6">
         <v>2045</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="6">
         <v>1</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G39" s="8">
         <v>0.60416666666666663</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="8">
         <v>0.68055555555555547</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40">
+    <row r="40" spans="1:8" s="6" customFormat="1" ht="19" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="6">
         <v>2045</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="6">
         <v>4</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="8">
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41">
+    <row r="41" spans="1:8" s="6" customFormat="1">
+      <c r="A41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="6">
         <v>2045</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="6">
         <v>4</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="8">
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42">
+    <row r="42" spans="1:8" s="3" customFormat="1">
+      <c r="A42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="3">
         <v>2045</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="5">
         <v>20101</v>
       </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>2</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="4">
         <v>0.59722222222222221</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43">
+    <row r="43" spans="1:8" s="3" customFormat="1">
+      <c r="A43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="3">
         <v>2045</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="5">
         <v>20101</v>
       </c>
-      <c r="D43" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D43" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>2</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="4">
         <v>0.59722222222222221</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44">
+    <row r="44" spans="1:8" s="6" customFormat="1">
+      <c r="A44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="6">
         <v>2045</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="7">
         <v>20101</v>
       </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="D44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="6">
         <v>3</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="8">
         <v>0.60416666666666663</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="8">
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B45">
+    <row r="45" spans="1:8" s="6" customFormat="1">
+      <c r="A45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="6">
         <v>2045</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="7">
         <v>20101</v>
       </c>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="6">
         <v>3</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="8">
         <v>0.60416666666666663</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="8">
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46">
+    <row r="46" spans="1:8" s="6" customFormat="1">
+      <c r="A46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="6">
         <v>2045</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="7">
         <v>20201</v>
       </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="D46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="6">
         <v>3</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="8">
         <v>0.6875</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="8">
         <v>0.76388888888888884</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47">
+    <row r="47" spans="1:8" s="6" customFormat="1">
+      <c r="A47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="6">
         <v>2045</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="7">
         <v>20201</v>
       </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="6">
         <v>3</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="8">
         <v>0.6875</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="8">
         <v>0.76388888888888884</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48">
+    <row r="48" spans="1:8" s="6" customFormat="1">
+      <c r="A48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="6">
         <v>2045</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="7">
         <v>20201</v>
       </c>
-      <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="6">
         <v>4</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="8">
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49">
+    <row r="49" spans="1:8" s="6" customFormat="1">
+      <c r="A49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="6">
         <v>2045</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="7">
         <v>20201</v>
       </c>
-      <c r="D49" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="6">
         <v>4</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="8">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="8">
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1830,7 +1842,7 @@
         <v>0.3888888888888889</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1856,7 +1868,7 @@
         <v>0.43055555555555558</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -1882,7 +1894,7 @@
         <v>0.59722222222222221</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1908,7 +1920,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -1934,7 +1946,7 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -1960,7 +1972,7 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -1986,7 +1998,7 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2012,7 +2024,7 @@
         <v>0.63888888888888895</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2038,7 +2050,7 @@
         <v>0.76388888888888884</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2064,7 +2076,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2090,7 +2102,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2116,7 +2128,7 @@
         <v>0.76388888888888884</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2142,7 +2154,7 @@
         <v>0.76388888888888884</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2168,7 +2180,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2194,7 +2206,7 @@
         <v>0.43055555555555558</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2220,7 +2232,7 @@
         <v>0.43055555555555558</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -2246,7 +2258,7 @@
         <v>0.43055555555555558</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2272,7 +2284,7 @@
         <v>0.43055555555555558</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -2298,7 +2310,7 @@
         <v>0.68055555555555547</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2324,7 +2336,7 @@
         <v>0.68055555555555547</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>9</v>
       </c>
